--- a/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241219).xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 관리/프로젝트 계획서(241219).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9999.개인프로젝트\01.분석설계\프로젝트 관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-Project-YHS\FED-Project-YHS\1차_프로젝트\01.분석설계\프로젝트 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="173">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1468,6 +1468,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 플렉스를 주고 싶은데 , 전체적으로 페이지 구조들이 잘못 잡혀있는 느낌. 조언을 구해야할 것 같음. 
+모바일 화면을 생각해서 컨텐츠를 세로로 변경해서 쿼리 진행해보려고 하는데 포지션이 다 앱솔로 잡혀있는 경우가 많아서 구조적 해결이 먼저 되어야할 것 같음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 피드백 진행 및 피드백 반영
+2. 미디어 쿼리
+- 추천제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 피드백 진행 후 반영하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 미디어 쿼리 추천제품 영역부터 이어서 시작</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">*질문
 (common.css)
 1. 231라인 글박스, 이미지 박스 반대로 / 컨텐츠 가운데로 하는법
@@ -1475,12 +1512,14 @@
 3. main.css 225 라인 border-bottom에만 투명도를 주려면?
 4. lookbook 쿼리 , 세로로 컨텐츠를 흐르게 하고 싶은데 어떻게 해야할까요?
 5. article 플렉스로 흐르게 해야할 것 같은데.. 어떻게 해야할까요?
+6. 서브메뉴 외 영억 클릭시 translate 위치값 초기화(0)
+7. SVG에 그림자 주는 법 
+8. 미디어 쿼리 , 추천제품 영역에서 일정 영역 이상 내려갔을 때 레이아웃을 바꿨는데, 여기서 가운데에 보더를 어떻게 주어야하는지?
+9. 로딩 애니메이션 중에 가운데서 커지는 효과는 ?
+10. 애니메이션을 따로 파일을 빼서 만드려고 하는데, 어디까지 만들어서 이으면 되는것인지? 페이드 아웃하면서 올라가는것까지 만들면 될지? 
+11. 마우스 오버할때 다른 이미지 나오면서 거기 안에 오버 기능이 또 있는 것은 어떻게 만드는건지?
+12. 좋은 발표의 기준, 발표 예시?
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 플렉스를 주고 싶은데 , 전체적으로 페이지 구조들이 잘못 잡혀있는 느낌. 조언을 구해야할 것 같음. 
-모바일 화면을 생각해서 컨텐츠를 세로로 변경해서 쿼리 진행해보려고 하는데 포지션이 다 앱솔로 잡혀있는 경우가 많아서 구조적 해결이 먼저 되어야할 것 같음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3184,7 +3223,7 @@
       </c>
       <c r="E3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>3</v>
@@ -6256,10 +6295,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="I26" sqref="I26"/>
+      <selection pane="topRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6293,7 +6332,7 @@
       </c>
       <c r="D3" s="16">
         <f ca="1">TODAY()</f>
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
@@ -6451,7 +6490,9 @@
       <c r="J8" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="26" t="s">
+        <v>170</v>
+      </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
@@ -6615,7 +6656,7 @@
         <v>166</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
@@ -6767,7 +6808,9 @@
         <v>161</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="J21" s="29" t="s">
+        <v>171</v>
+      </c>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
@@ -6917,7 +6960,7 @@
         <v>163</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -6929,6 +6972,47 @@
     <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D17:D19"/>
@@ -6945,47 +7029,6 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N23:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
